--- a/data/bdd_estres_2022.xlsx
+++ b/data/bdd_estres_2022.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svale\Desktop\Prueba\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svale\Desktop\RBDUOC2025\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28115338-E018-44C1-B4E3-9E3967601048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155C1F99-5105-4C01-8F26-A1702AA2EDEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{121977D7-DA5A-48F3-88BF-EA487A05C9BB}"/>
   </bookViews>
@@ -104,69 +104,9 @@
     <t>Problemas de autoestima</t>
   </si>
   <si>
-    <t>ALAMEDA</t>
-  </si>
-  <si>
-    <t>ANTONIO VARAS</t>
-  </si>
-  <si>
-    <t>CAMPUS ARAUCO</t>
-  </si>
-  <si>
-    <t>CAMPUS VILLARRICA</t>
-  </si>
-  <si>
-    <t>CONCEPCIÓN</t>
-  </si>
-  <si>
-    <t>MAIPÚ</t>
-  </si>
-  <si>
-    <t>MELIPILLA</t>
-  </si>
-  <si>
-    <t>NACIMIENTO</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - </t>
   </si>
   <si>
-    <t>ONLINE</t>
-  </si>
-  <si>
-    <t>PADRE ALONSO DE OVALLE</t>
-  </si>
-  <si>
-    <t>PLAZA NORTE</t>
-  </si>
-  <si>
-    <t>PLAZA OESTE</t>
-  </si>
-  <si>
-    <t>PLAZA VESPUCIO</t>
-  </si>
-  <si>
-    <t>PUENTE ALTO</t>
-  </si>
-  <si>
-    <t>PUERTO MONTT</t>
-  </si>
-  <si>
-    <t>SAN BERNARDO</t>
-  </si>
-  <si>
-    <t>SAN CARLOS DE APOQUINDO</t>
-  </si>
-  <si>
-    <t>SAN JOAQUÍN</t>
-  </si>
-  <si>
-    <t>VALPARAÍSO</t>
-  </si>
-  <si>
-    <t>VIÑA DEL MAR</t>
-  </si>
-  <si>
     <t>Administración y Negocios</t>
   </si>
   <si>
@@ -195,6 +135,66 @@
   </si>
   <si>
     <t>Global</t>
+  </si>
+  <si>
+    <t>Alameda</t>
+  </si>
+  <si>
+    <t>Antonio Varas</t>
+  </si>
+  <si>
+    <t>Campus Arauco</t>
+  </si>
+  <si>
+    <t>Campus Villarrica</t>
+  </si>
+  <si>
+    <t>Concepción</t>
+  </si>
+  <si>
+    <t>Maipú</t>
+  </si>
+  <si>
+    <t>Melipilla</t>
+  </si>
+  <si>
+    <t>Nacimiento</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>Padre Alonso De Ovalle</t>
+  </si>
+  <si>
+    <t>Plaza Norte</t>
+  </si>
+  <si>
+    <t>Plaza Oeste</t>
+  </si>
+  <si>
+    <t>Plaza Vespucio</t>
+  </si>
+  <si>
+    <t>Puente Alto</t>
+  </si>
+  <si>
+    <t>Puerto Montt</t>
+  </si>
+  <si>
+    <t>San Bernardo</t>
+  </si>
+  <si>
+    <t>San Carlos De Apoquindo</t>
+  </si>
+  <si>
+    <t>San Joaquín</t>
+  </si>
+  <si>
+    <t>Valparaíso</t>
+  </si>
+  <si>
+    <t>Viña Del Mar</t>
   </si>
 </sst>
 </file>
@@ -582,7 +582,7 @@
   <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -657,7 +657,7 @@
     </row>
     <row r="2" spans="1:23" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="B2" s="1">
         <v>0.53323483763132762</v>
@@ -728,7 +728,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1">
         <v>0.54402372262773724</v>
@@ -799,7 +799,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B4" s="1">
         <v>0.54740969581749055</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1">
         <v>0.52840909090909094</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1">
         <v>0.52708333333333335</v>
@@ -1012,7 +1012,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B7" s="1">
         <v>0.5488696808510638</v>
@@ -1083,7 +1083,7 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B8" s="1">
         <v>0.52506836827711945</v>
@@ -1154,7 +1154,7 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B9" s="1">
         <v>0.5108644859813084</v>
@@ -1225,149 +1225,149 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B12" s="1">
         <v>0.53791469194312791</v>
@@ -1438,7 +1438,7 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B13" s="1">
         <v>0.53321540880503149</v>
@@ -1509,7 +1509,7 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B14" s="1">
         <v>0.54046474358974361</v>
@@ -1580,7 +1580,7 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B15" s="1">
         <v>0.54882154882154888</v>
@@ -1651,7 +1651,7 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B16" s="1">
         <v>0.52962085308056872</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B17" s="1">
         <v>0.53883495145631066</v>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B18" s="1">
         <v>0.54518950437317781</v>
@@ -1864,7 +1864,7 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B19" s="1">
         <v>0.54820819112627983</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B20" s="1">
         <v>0.5311009538950715</v>
@@ -2006,7 +2006,7 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B21" s="1">
         <v>0.52235069191551342</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B22" s="1">
         <v>0.54094827586206895</v>
@@ -2148,7 +2148,7 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1">
         <v>0.53501400560224088</v>
@@ -2219,7 +2219,7 @@
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B24" s="1">
         <v>0.55436507936507939</v>
@@ -2290,7 +2290,7 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1">
         <v>0.52733236151603502</v>
@@ -2361,7 +2361,7 @@
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1">
         <v>0.55961070559610704</v>
@@ -2432,7 +2432,7 @@
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1">
         <v>0.51944774346793354</v>
@@ -2503,7 +2503,7 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="B28" s="1">
         <v>0.53446796338672764</v>
@@ -2574,7 +2574,7 @@
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B29" s="1">
         <v>0.52458120903131833</v>
@@ -2645,7 +2645,7 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B30" s="1">
         <v>0.52673760775862066</v>
@@ -2716,7 +2716,7 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B31" s="1">
         <v>0.54296875</v>
